--- a/Data/Quarterly.xlsx
+++ b/Data/Quarterly.xlsx
@@ -1508,10 +1508,10 @@
   <dimension ref="A1:CL937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="CD201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CD210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CL209" sqref="CL209"/>
+      <selection pane="bottomRight" activeCell="CL221" sqref="CL221:CL279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -47574,10 +47574,10 @@
         <v>2.06129259198671E-2</v>
       </c>
       <c r="CK221" s="3">
-        <v>1.8175311874605402E-2</v>
+        <v>-1.3604810000000001</v>
       </c>
       <c r="CL221" s="3">
-        <v>2.06129259198671E-2</v>
+        <v>-1.092444</v>
       </c>
     </row>
     <row r="222" spans="2:90">
@@ -47844,10 +47844,10 @@
         <v>3.18737972655697E-2</v>
       </c>
       <c r="CK222" s="3">
-        <v>2.4342920449777001E-2</v>
+        <v>-91.748068000000004</v>
       </c>
       <c r="CL222" s="3">
-        <v>3.18737972655697E-2</v>
+        <v>-109.832984</v>
       </c>
     </row>
     <row r="223" spans="2:90">
@@ -48114,10 +48114,10 @@
         <v>3.52516450914791E-2</v>
       </c>
       <c r="CK223" s="3">
-        <v>2.2919106702310298E-2</v>
+        <v>-243.46148400000001</v>
       </c>
       <c r="CL223" s="3">
-        <v>3.52516450914791E-2</v>
+        <v>-284.05667</v>
       </c>
     </row>
     <row r="224" spans="2:90">
@@ -48384,10 +48384,10 @@
         <v>2.8995099052546099E-2</v>
       </c>
       <c r="CK224" s="3">
-        <v>2.19739946668666E-2</v>
+        <v>363.70564899999999</v>
       </c>
       <c r="CL224" s="3">
-        <v>2.8995099052546099E-2</v>
+        <v>497.76755400000002</v>
       </c>
     </row>
     <row r="225" spans="2:90">
@@ -48654,10 +48654,10 @@
         <v>3.23353322598295E-2</v>
       </c>
       <c r="CK225" s="3">
-        <v>2.3028333761046502E-2</v>
+        <v>2171.4010870000002</v>
       </c>
       <c r="CL225" s="3">
-        <v>3.23353322598295E-2</v>
+        <v>2560.4590710000002</v>
       </c>
     </row>
     <row r="226" spans="2:90">
@@ -48924,10 +48924,10 @@
         <v>3.6743403734282302E-2</v>
       </c>
       <c r="CK226" s="3">
-        <v>2.7256717458197601E-2</v>
+        <v>4658.5147930000003</v>
       </c>
       <c r="CL226" s="3">
-        <v>3.6743403734282302E-2</v>
+        <v>4683.904904</v>
       </c>
     </row>
     <row r="227" spans="2:90">
@@ -49194,10 +49194,10 @@
         <v>3.40094103587689E-2</v>
       </c>
       <c r="CK227" s="3">
-        <v>2.2931184911600101E-2</v>
+        <v>7674.5482259999999</v>
       </c>
       <c r="CL227" s="3">
-        <v>3.40094103587689E-2</v>
+        <v>8415.8404150000006</v>
       </c>
     </row>
     <row r="228" spans="2:90">
@@ -49464,10 +49464,10 @@
         <v>3.2629332471580598E-2</v>
       </c>
       <c r="CK228" s="3">
-        <v>2.1185286088406401E-2</v>
+        <v>13195.761716999999</v>
       </c>
       <c r="CL228" s="3">
-        <v>3.2629332471580598E-2</v>
+        <v>16225.520764000001</v>
       </c>
     </row>
     <row r="229" spans="2:90">
@@ -49734,10 +49734,10 @@
         <v>3.2975840229961299E-2</v>
       </c>
       <c r="CK229" s="3">
-        <v>2.17841390525426E-2</v>
+        <v>19305.194876000001</v>
       </c>
       <c r="CL229" s="3">
-        <v>3.2975840229961299E-2</v>
+        <v>25060.179488000002</v>
       </c>
     </row>
     <row r="230" spans="2:90">
@@ -50004,10 +50004,10 @@
         <v>3.52467997672146E-2</v>
       </c>
       <c r="CK230" s="3">
-        <v>2.4354458904610399E-2</v>
+        <v>21772.624629999998</v>
       </c>
       <c r="CL230" s="3">
-        <v>3.52467997672146E-2</v>
+        <v>27464.431949999998</v>
       </c>
     </row>
     <row r="231" spans="2:90">
@@ -50274,10 +50274,10 @@
         <v>3.6965984485635699E-2</v>
       </c>
       <c r="CK231" s="3">
-        <v>2.5660477682279099E-2</v>
+        <v>20568.592766999998</v>
       </c>
       <c r="CL231" s="3">
-        <v>3.6965984485635699E-2</v>
+        <v>24328.050598999998</v>
       </c>
     </row>
     <row r="232" spans="2:90">
@@ -50544,10 +50544,10 @@
         <v>3.6181213302722899E-2</v>
       </c>
       <c r="CK232" s="3">
-        <v>2.3800175860238301E-2</v>
+        <v>21018.90191</v>
       </c>
       <c r="CL232" s="3">
-        <v>3.6181213302722899E-2</v>
+        <v>23445.292433999999</v>
       </c>
     </row>
     <row r="233" spans="2:90">
@@ -50814,10 +50814,10 @@
         <v>3.5075880630996897E-2</v>
       </c>
       <c r="CK233" s="3">
-        <v>2.2545035582297899E-2</v>
+        <v>25194.770109000001</v>
       </c>
       <c r="CL233" s="3">
-        <v>3.5075880630996897E-2</v>
+        <v>27616.052376</v>
       </c>
     </row>
     <row r="234" spans="2:90">
@@ -51084,10 +51084,10 @@
         <v>3.6667910958003501E-2</v>
       </c>
       <c r="CK234" s="3">
-        <v>2.4680705028951502E-2</v>
+        <v>27629.875344</v>
       </c>
       <c r="CL234" s="3">
-        <v>3.6667910958003501E-2</v>
+        <v>29219.444607000001</v>
       </c>
     </row>
     <row r="235" spans="2:90">
@@ -51354,10 +51354,10 @@
         <v>3.7408166210118797E-2</v>
       </c>
       <c r="CK235" s="3">
-        <v>2.5884605584030499E-2</v>
+        <v>24763.559806000001</v>
       </c>
       <c r="CL235" s="3">
-        <v>3.7408166210118797E-2</v>
+        <v>25892.940683000001</v>
       </c>
     </row>
     <row r="236" spans="2:90">
@@ -51624,10 +51624,10 @@
         <v>3.5601233972975203E-2</v>
       </c>
       <c r="CK236" s="3">
-        <v>2.3137629551606601E-2</v>
+        <v>23393.235272000002</v>
       </c>
       <c r="CL236" s="3">
-        <v>3.5601233972975203E-2</v>
+        <v>25969.442685000002</v>
       </c>
     </row>
     <row r="237" spans="2:90">
@@ -51894,10 +51894,10 @@
         <v>3.2729276906032799E-2</v>
       </c>
       <c r="CK237" s="3">
-        <v>1.9528618555155801E-2</v>
+        <v>27817.327347999999</v>
       </c>
       <c r="CL237" s="3">
-        <v>3.2729276906032799E-2</v>
+        <v>33275.711547999999</v>
       </c>
     </row>
     <row r="238" spans="2:90">
@@ -52164,10 +52164,10 @@
         <v>3.2153281870258302E-2</v>
       </c>
       <c r="CK238" s="3">
-        <v>1.9383300000244099E-2</v>
+        <v>32417.749877999999</v>
       </c>
       <c r="CL238" s="3">
-        <v>3.2153281870258302E-2</v>
+        <v>37986.186138999998</v>
       </c>
     </row>
     <row r="239" spans="2:90">
@@ -52434,10 +52434,10 @@
         <v>3.2245234269592797E-2</v>
       </c>
       <c r="CK239" s="3">
-        <v>1.99702220025142E-2</v>
+        <v>33512.847825999997</v>
       </c>
       <c r="CL239" s="3">
-        <v>3.2245234269592797E-2</v>
+        <v>35272.942235000002</v>
       </c>
     </row>
     <row r="240" spans="2:90">
@@ -52704,10 +52704,10 @@
         <v>3.42681837398634E-2</v>
       </c>
       <c r="CK240" s="3">
-        <v>2.1500289821386499E-2</v>
+        <v>34381.089967</v>
       </c>
       <c r="CL240" s="3">
-        <v>3.42681837398634E-2</v>
+        <v>30951.298559999999</v>
       </c>
     </row>
     <row r="241" spans="2:90">
@@ -52974,10 +52974,10 @@
         <v>3.9056309340928803E-2</v>
       </c>
       <c r="CK241" s="3">
-        <v>2.43382437890356E-2</v>
+        <v>38871.051355000003</v>
       </c>
       <c r="CL241" s="3">
-        <v>3.9056309340928803E-2</v>
+        <v>31409.676936</v>
       </c>
     </row>
     <row r="242" spans="2:90">
@@ -53244,10 +53244,10 @@
         <v>4.6110432095307297E-2</v>
       </c>
       <c r="CK242" s="3">
-        <v>2.90955275337553E-2</v>
+        <v>43308.890490999998</v>
       </c>
       <c r="CL242" s="3">
-        <v>4.6110432095307297E-2</v>
+        <v>33453.645929999999</v>
       </c>
     </row>
     <row r="243" spans="2:90">
@@ -53514,10 +53514,10 @@
         <v>5.0588052975185101E-2</v>
       </c>
       <c r="CK243" s="3">
-        <v>3.1292258567436899E-2</v>
+        <v>43997.882212999997</v>
       </c>
       <c r="CL243" s="3">
-        <v>5.0588052975185101E-2</v>
+        <v>33000.610278</v>
       </c>
     </row>
     <row r="244" spans="2:90">
@@ -53784,10 +53784,10 @@
         <v>5.11730488607424E-2</v>
       </c>
       <c r="CK244" s="3">
-        <v>2.99026040427403E-2</v>
+        <v>44343.530736000001</v>
       </c>
       <c r="CL244" s="3">
-        <v>5.11730488607424E-2</v>
+        <v>32458.552056</v>
       </c>
     </row>
     <row r="245" spans="2:90">
@@ -54054,10 +54054,10 @@
         <v>5.0490354522267897E-2</v>
       </c>
       <c r="CK245" s="3">
-        <v>2.8289733471145401E-2</v>
+        <v>48264.488396000001</v>
       </c>
       <c r="CL245" s="3">
-        <v>5.0490354522267897E-2</v>
+        <v>33798.892016999998</v>
       </c>
     </row>
     <row r="246" spans="2:90">
@@ -54324,10 +54324,10 @@
         <v>5.2683014764021603E-2</v>
       </c>
       <c r="CK246" s="3">
-        <v>3.0788523929413499E-2</v>
+        <v>50101.067632999999</v>
       </c>
       <c r="CL246" s="3">
-        <v>5.2683014764021603E-2</v>
+        <v>32272.386166</v>
       </c>
     </row>
     <row r="247" spans="2:90">
@@ -54594,10 +54594,10 @@
         <v>4.9911772505803198E-2</v>
       </c>
       <c r="CK247" s="3">
-        <v>3.1139219193928199E-2</v>
+        <v>46129.713814000002</v>
       </c>
       <c r="CL247" s="3">
-        <v>4.9911772505803198E-2</v>
+        <v>27660.145089000001</v>
       </c>
     </row>
     <row r="248" spans="2:90">
@@ -54864,10 +54864,10 @@
         <v>4.2378566101373902E-2</v>
       </c>
       <c r="CK248" s="3">
-        <v>2.61880314755326E-2</v>
+        <v>44600.662831000001</v>
       </c>
       <c r="CL248" s="3">
-        <v>4.2378566101373902E-2</v>
+        <v>28333.097283999999</v>
       </c>
     </row>
     <row r="249" spans="2:90">
@@ -55134,10 +55134,10 @@
         <v>4.2165283529751997E-2</v>
       </c>
       <c r="CK249" s="3">
-        <v>2.4994906690363701E-2</v>
+        <v>56545.3170409999</v>
       </c>
       <c r="CL249" s="3">
-        <v>4.2165283529751997E-2</v>
+        <v>35365.348665999998</v>
       </c>
     </row>
     <row r="250" spans="2:90">
@@ -55404,10 +55404,10 @@
         <v>4.9172998754699299E-2</v>
       </c>
       <c r="CK250" s="3">
-        <v>2.9163967394166299E-2</v>
+        <v>72536.017714999907</v>
       </c>
       <c r="CL250" s="3">
-        <v>4.9172998754699299E-2</v>
+        <v>39893.831696000001</v>
       </c>
     </row>
     <row r="251" spans="2:90">
@@ -55674,10 +55674,10 @@
         <v>5.2916606880674198E-2</v>
       </c>
       <c r="CK251" s="3">
-        <v>3.19443051227127E-2</v>
+        <v>79476.085573999895</v>
       </c>
       <c r="CL251" s="3">
-        <v>5.2916606880674198E-2</v>
+        <v>40319.414076000001</v>
       </c>
     </row>
     <row r="252" spans="2:90">
@@ -55944,10 +55944,10 @@
         <v>4.87599869036437E-2</v>
       </c>
       <c r="CK252" s="3">
-        <v>2.9348055068197699E-2</v>
+        <v>76398.161259999993</v>
       </c>
       <c r="CL252" s="3">
-        <v>4.87599869036437E-2</v>
+        <v>42838.274082000004</v>
       </c>
     </row>
     <row r="253" spans="2:90">
@@ -56190,10 +56190,10 @@
         <v>4.2642575920862E-2</v>
       </c>
       <c r="CK253" s="3">
-        <v>2.5220683466068101E-2</v>
+        <v>74928.409029999995</v>
       </c>
       <c r="CL253" s="3">
-        <v>4.2642575920862E-2</v>
+        <v>48526.729736000001</v>
       </c>
     </row>
     <row r="254" spans="2:90">
@@ -56436,10 +56436,10 @@
         <v>4.4347401369375199E-2</v>
       </c>
       <c r="CK254" s="3">
-        <v>2.6231726823723201E-2</v>
+        <v>78572.233540000001</v>
       </c>
       <c r="CL254" s="3">
-        <v>4.4347401369375199E-2</v>
+        <v>48356.702847</v>
       </c>
     </row>
     <row r="255" spans="2:90">
@@ -56682,10 +56682,10 @@
         <v>4.9789724223172301E-2</v>
       </c>
       <c r="CK255" s="3">
-        <v>2.9874308241176002E-2</v>
+        <v>83001.333970000007</v>
       </c>
       <c r="CL255" s="3">
-        <v>4.9789724223172301E-2</v>
+        <v>42514.137150000002</v>
       </c>
     </row>
     <row r="256" spans="2:90">
@@ -56928,10 +56928,10 @@
         <v>5.1180591467440299E-2</v>
       </c>
       <c r="CK256" s="3">
-        <v>3.0373513558059E-2</v>
+        <v>85749.796751999995</v>
       </c>
       <c r="CL256" s="3">
-        <v>5.1180591467440299E-2</v>
+        <v>41491.122019000002</v>
       </c>
     </row>
     <row r="257" spans="2:90">
@@ -57174,10 +57174,10 @@
         <v>4.5396441154398198E-2</v>
       </c>
       <c r="CK257" s="3">
-        <v>2.6167870988249201E-2</v>
+        <v>85509.959577000001</v>
       </c>
       <c r="CL257" s="3">
-        <v>4.5396441154398198E-2</v>
+        <v>47322.283016000001</v>
       </c>
     </row>
     <row r="258" spans="2:90">
@@ -57420,10 +57420,10 @@
         <v>3.9960464158362401E-2</v>
       </c>
       <c r="CK258" s="3">
-        <v>2.28878605537234E-2</v>
+        <v>77400.470207999999</v>
       </c>
       <c r="CL258" s="3">
-        <v>3.9960464158362401E-2</v>
+        <v>48107.397198999999</v>
       </c>
     </row>
     <row r="259" spans="2:90">
@@ -57666,10 +57666,10 @@
         <v>3.50341628767223E-2</v>
       </c>
       <c r="CK259" s="3">
-        <v>2.0522048544563999E-2</v>
+        <v>67559.821102999995</v>
       </c>
       <c r="CL259" s="3">
-        <v>3.50341628767223E-2</v>
+        <v>43336.897764000001</v>
       </c>
     </row>
     <row r="260" spans="2:90">
@@ -57912,10 +57912,10 @@
         <v>3.4589283027405097E-2</v>
       </c>
       <c r="CK260" s="3">
-        <v>2.0749715833938E-2</v>
+        <v>68711.445466000005</v>
       </c>
       <c r="CL260" s="3">
-        <v>3.4589283027405097E-2</v>
+        <v>40984.590513000003</v>
       </c>
     </row>
     <row r="261" spans="2:90">
@@ -58158,10 +58158,10 @@
         <v>3.8425160126579198E-2</v>
       </c>
       <c r="CK261" s="3">
-        <v>2.3455637863464301E-2</v>
+        <v>81847.501323000004</v>
       </c>
       <c r="CL261" s="3">
-        <v>3.8425160126579198E-2</v>
+        <v>44266.875118999997</v>
       </c>
     </row>
     <row r="262" spans="2:90">
@@ -58404,10 +58404,10 @@
         <v>4.3411639089657103E-2</v>
       </c>
       <c r="CK262" s="3">
-        <v>2.7100361409459501E-2</v>
+        <v>86368.197337000005</v>
       </c>
       <c r="CL262" s="3">
-        <v>4.3411639089657103E-2</v>
+        <v>43850.408659000001</v>
       </c>
     </row>
     <row r="263" spans="2:90">
@@ -58650,10 +58650,10 @@
         <v>4.3975354155787898E-2</v>
       </c>
       <c r="CK263" s="3">
-        <v>2.7976588021917999E-2</v>
+        <v>75918.200444000002</v>
       </c>
       <c r="CL263" s="3">
-        <v>4.3975354155787898E-2</v>
+        <v>39630.464850999997</v>
       </c>
     </row>
     <row r="264" spans="2:90">
@@ -58896,10 +58896,10 @@
         <v>3.92468666146642E-2</v>
       </c>
       <c r="CK264" s="3">
-        <v>2.4058874394396901E-2</v>
+        <v>69559.556435999999</v>
       </c>
       <c r="CL264" s="3">
-        <v>3.92468666146642E-2</v>
+        <v>40515.848733999999</v>
       </c>
     </row>
     <row r="265" spans="2:90">
@@ -59142,10 +59142,10 @@
         <v>3.6115501395766303E-2</v>
       </c>
       <c r="CK265" s="3">
-        <v>2.10487504699708E-2</v>
+        <v>76532.896670000002</v>
       </c>
       <c r="CL265" s="3">
-        <v>3.6115501395766303E-2</v>
+        <v>47236.086285999998</v>
       </c>
     </row>
     <row r="266" spans="2:90">
@@ -59388,10 +59388,10 @@
         <v>3.6651458171087101E-2</v>
       </c>
       <c r="CK266" s="3">
-        <v>2.1022404268633402E-2</v>
+        <v>80776.977862000102</v>
       </c>
       <c r="CL266" s="3">
-        <v>3.6651458171087101E-2</v>
+        <v>48651.849861000002</v>
       </c>
     </row>
     <row r="267" spans="2:90">
@@ -59634,10 +59634,10 @@
         <v>3.6728710071042503E-2</v>
       </c>
       <c r="CK267" s="3">
-        <v>2.1106768400900901E-2</v>
+        <v>73874.009376000002</v>
       </c>
       <c r="CL267" s="3">
-        <v>3.6728710071042503E-2</v>
+        <v>44400.932542000002</v>
       </c>
     </row>
     <row r="268" spans="2:90">
@@ -59880,10 +59880,10 @@
         <v>3.6159810552714902E-2</v>
       </c>
       <c r="CK268" s="3">
-        <v>2.06415578091656E-2</v>
+        <v>66277.907779999994</v>
       </c>
       <c r="CL268" s="3">
-        <v>3.6159810552714902E-2</v>
+        <v>41828.317968000003</v>
       </c>
     </row>
     <row r="269" spans="2:90">
@@ -60126,10 +60126,10 @@
         <v>3.5830476123784698E-2</v>
       </c>
       <c r="CK269" s="3">
-        <v>2.0194720611529E-2</v>
+        <v>67369.306972999999</v>
       </c>
       <c r="CL269" s="3">
-        <v>3.5830476123784698E-2</v>
+        <v>45976.502261000001</v>
       </c>
     </row>
     <row r="270" spans="2:90">
@@ -60372,10 +60372,10 @@
         <v>3.6933608854124597E-2</v>
       </c>
       <c r="CK270" s="3">
-        <v>2.07160832130735E-2</v>
+        <v>68060.610902999993</v>
       </c>
       <c r="CL270" s="3">
-        <v>3.6933608854124597E-2</v>
+        <v>47159.346664999997</v>
       </c>
     </row>
     <row r="271" spans="2:90">
@@ -60618,10 +60618,10 @@
         <v>3.7083913875232397E-2</v>
       </c>
       <c r="CK271" s="3">
-        <v>2.0610480873587699E-2</v>
+        <v>61655.684299</v>
       </c>
       <c r="CL271" s="3">
-        <v>3.7083913875232397E-2</v>
+        <v>43544.163108000001</v>
       </c>
     </row>
     <row r="272" spans="2:90">
@@ -60859,10 +60859,10 @@
         <v>3.4193013491629801E-2</v>
       </c>
       <c r="CK272" s="3">
-        <v>1.8774189923216798E-2</v>
+        <v>56586.912978</v>
       </c>
       <c r="CL272" s="3">
-        <v>3.4193013491629801E-2</v>
+        <v>44978.755942000003</v>
       </c>
     </row>
     <row r="273" spans="2:90">
@@ -61100,10 +61100,10 @@
         <v>3.3100381182780601E-2</v>
       </c>
       <c r="CK273" s="3">
-        <v>1.8184882447551301E-2</v>
+        <v>59746.666433999999</v>
       </c>
       <c r="CL273" s="3">
-        <v>3.3100381182780601E-2</v>
+        <v>51206.711195000003</v>
       </c>
     </row>
     <row r="274" spans="2:90">
@@ -61339,10 +61339,10 @@
         <v>3.5086061500050003E-2</v>
       </c>
       <c r="CK274" s="3">
-        <v>1.9444044009664901E-2</v>
+        <v>60911.502832999999</v>
       </c>
       <c r="CL274" s="3">
-        <v>3.5086061500050003E-2</v>
+        <v>50242.489807999998</v>
       </c>
     </row>
     <row r="275" spans="2:90">
@@ -61578,10 +61578,10 @@
         <v>3.7211211428858103E-2</v>
       </c>
       <c r="CK275" s="3">
-        <v>2.0625619988588601E-2</v>
+        <v>59623.478673999998</v>
       </c>
       <c r="CL275" s="3">
-        <v>3.7211211428858103E-2</v>
+        <v>45195.863619999996</v>
       </c>
     </row>
     <row r="276" spans="2:90">
@@ -61817,10 +61817,10 @@
         <v>3.8368152182373202E-2</v>
       </c>
       <c r="CK276" s="3">
-        <v>2.1034801152984201E-2</v>
+        <v>65995.924253999998</v>
       </c>
       <c r="CL276" s="3">
-        <v>3.8368152182373202E-2</v>
+        <v>46750.044779999997</v>
       </c>
     </row>
     <row r="277" spans="2:90">
@@ -62049,10 +62049,10 @@
         <v>3.8053880278980198E-2</v>
       </c>
       <c r="CK277" s="3">
-        <v>2.0985269652303601E-2</v>
+        <v>98856.559843714596</v>
       </c>
       <c r="CL277" s="3">
-        <v>3.8053880278980198E-2</v>
+        <v>72325.627873159698</v>
       </c>
     </row>
     <row r="278" spans="2:90">
@@ -62281,10 +62281,10 @@
         <v>3.9006702890559498E-2</v>
       </c>
       <c r="CK278" s="3">
-        <v>2.1747951109930299E-2</v>
+        <v>109917.674588592</v>
       </c>
       <c r="CL278" s="3">
-        <v>3.9006702890559498E-2</v>
+        <v>80026.4466347087</v>
       </c>
     </row>
     <row r="279" spans="2:90">
@@ -62494,10 +62494,10 @@
         <v>4.0581298791034497E-2</v>
       </c>
       <c r="CK279" s="3">
-        <v>2.2847925046065701E-2</v>
+        <v>123787.323969811</v>
       </c>
       <c r="CL279" s="3">
-        <v>4.0581298791034497E-2</v>
+        <v>86961.774937735798</v>
       </c>
     </row>
     <row r="280" spans="2:90">

--- a/Data/Quarterly.xlsx
+++ b/Data/Quarterly.xlsx
@@ -1508,10 +1508,10 @@
   <dimension ref="A1:CL937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="CD210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CD198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CL221" sqref="CL221:CL279"/>
+      <selection pane="bottomRight" activeCell="CK226" sqref="CK226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -47573,12 +47573,6 @@
       <c r="CJ221" s="3">
         <v>2.06129259198671E-2</v>
       </c>
-      <c r="CK221" s="3">
-        <v>-1.3604810000000001</v>
-      </c>
-      <c r="CL221" s="3">
-        <v>-1.092444</v>
-      </c>
     </row>
     <row r="222" spans="2:90">
       <c r="B222" s="4">
@@ -47843,12 +47837,6 @@
       <c r="CJ222" s="3">
         <v>3.18737972655697E-2</v>
       </c>
-      <c r="CK222" s="3">
-        <v>-91.748068000000004</v>
-      </c>
-      <c r="CL222" s="3">
-        <v>-109.832984</v>
-      </c>
     </row>
     <row r="223" spans="2:90">
       <c r="B223" s="4">
@@ -48112,12 +48100,6 @@
       </c>
       <c r="CJ223" s="3">
         <v>3.52516450914791E-2</v>
-      </c>
-      <c r="CK223" s="3">
-        <v>-243.46148400000001</v>
-      </c>
-      <c r="CL223" s="3">
-        <v>-284.05667</v>
       </c>
     </row>
     <row r="224" spans="2:90">
